--- a/气象/表格文件/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/表格文件/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\表格文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098247A2-C662-4E14-81BF-B61B323F0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308496D-D964-4A52-852A-AF43B6495B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1979">
   <si>
     <t>undefined</t>
   </si>
@@ -6630,7 +6630,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>表中站点全部位于定居点，e.g. 东戈壁人口2700，uvs特斯人口5800</t>
+      <t>表中站点全部位于定居点，e.g. 东戈壁人口2792，uvs特斯人口5223</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -31870,7 +31870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31966,51 +31966,53 @@
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="115">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="B6" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>1869</v>
+        <v>1785</v>
       </c>
       <c r="D6" s="100">
-        <v>-50</v>
+        <v>-53.8</v>
       </c>
       <c r="E6" s="30">
-        <v>42394</v>
+        <v>38721</v>
       </c>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="116"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>1869</v>
+        <v>1785</v>
       </c>
       <c r="D7" s="100">
-        <v>-51.9</v>
+        <v>-54</v>
       </c>
       <c r="E7" s="30">
-        <v>42398</v>
+        <v>38722</v>
       </c>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="116"/>
+      <c r="A8" s="115">
+        <v>2016</v>
+      </c>
       <c r="B8" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1785</v>
+        <v>1869</v>
       </c>
       <c r="D8" s="100">
-        <v>-55.3</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>1950</v>
+        <v>-50</v>
+      </c>
+      <c r="E8" s="30">
+        <v>42394</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -32023,10 +32025,10 @@
         <v>1869</v>
       </c>
       <c r="D9" s="100">
-        <v>-52.8</v>
+        <v>-51.9</v>
       </c>
       <c r="E9" s="30">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -32036,13 +32038,13 @@
         <v>1973</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>1869</v>
+        <v>1785</v>
       </c>
       <c r="D10" s="100">
-        <v>-51.5</v>
-      </c>
-      <c r="E10" s="30">
-        <v>42400</v>
+        <v>-55.3</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>1950</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -32055,10 +32057,10 @@
         <v>1869</v>
       </c>
       <c r="D11" s="100">
-        <v>-50</v>
+        <v>-52.8</v>
       </c>
       <c r="E11" s="30">
-        <v>42404</v>
+        <v>42399</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -32071,10 +32073,10 @@
         <v>1869</v>
       </c>
       <c r="D12" s="100">
-        <v>-52.3</v>
+        <v>-51.5</v>
       </c>
       <c r="E12" s="30">
-        <v>42405</v>
+        <v>42400</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -32087,42 +32089,44 @@
         <v>1869</v>
       </c>
       <c r="D13" s="100">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="E13" s="30">
-        <v>42406</v>
+        <v>42404</v>
       </c>
       <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="116"/>
       <c r="B14" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>1790</v>
+        <v>1869</v>
       </c>
       <c r="D14" s="100">
-        <v>-54.7</v>
+        <v>-52.3</v>
       </c>
       <c r="E14" s="30">
-        <v>42412</v>
-      </c>
+        <v>42405</v>
+      </c>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="116"/>
       <c r="B15" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>1790</v>
+        <v>1869</v>
       </c>
       <c r="D15" s="100">
-        <v>-50.3</v>
+        <v>-52</v>
       </c>
       <c r="E15" s="30">
-        <v>42437</v>
-      </c>
+        <v>42406</v>
+      </c>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="116"/>
@@ -32133,14 +32137,14 @@
         <v>1790</v>
       </c>
       <c r="D16" s="100">
-        <v>-54</v>
+        <v>-54.7</v>
       </c>
       <c r="E16" s="30">
-        <v>42438</v>
+        <v>42412</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="117"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="99" t="s">
         <v>1788</v>
       </c>
@@ -32148,33 +32152,29 @@
         <v>1790</v>
       </c>
       <c r="D17" s="100">
-        <v>-53</v>
+        <v>-50.3</v>
       </c>
       <c r="E17" s="30">
-        <v>42439</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="102">
-        <v>2017</v>
-      </c>
+      <c r="A18" s="116"/>
       <c r="B18" s="99" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D18" s="100">
-        <v>-45.4</v>
+        <v>-54</v>
       </c>
       <c r="E18" s="30">
-        <v>42763</v>
+        <v>42438</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="115">
-        <v>2018</v>
-      </c>
+      <c r="A19" s="117"/>
       <c r="B19" s="99" t="s">
         <v>1788</v>
       </c>
@@ -32182,29 +32182,33 @@
         <v>1790</v>
       </c>
       <c r="D19" s="100">
-        <v>-51.6</v>
+        <v>-53</v>
       </c>
       <c r="E19" s="30">
-        <v>43123</v>
+        <v>42439</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="116"/>
+      <c r="A20" s="102">
+        <v>2017</v>
+      </c>
       <c r="B20" s="99" t="s">
-        <v>1973</v>
+        <v>1789</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1868</v>
+        <v>1791</v>
       </c>
       <c r="D20" s="100">
-        <v>-51.3</v>
+        <v>-45.4</v>
       </c>
       <c r="E20" s="30">
-        <v>43123</v>
+        <v>42763</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="116"/>
+      <c r="A21" s="115">
+        <v>2018</v>
+      </c>
       <c r="B21" s="99" t="s">
         <v>1788</v>
       </c>
@@ -32212,10 +32216,10 @@
         <v>1790</v>
       </c>
       <c r="D21" s="100">
-        <v>-53.2</v>
+        <v>-51.6</v>
       </c>
       <c r="E21" s="30">
-        <v>43124</v>
+        <v>43123</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -32227,10 +32231,10 @@
         <v>1868</v>
       </c>
       <c r="D22" s="100">
-        <v>-51.7</v>
+        <v>-51.3</v>
       </c>
       <c r="E22" s="30">
-        <v>43124</v>
+        <v>43123</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -32242,10 +32246,10 @@
         <v>1790</v>
       </c>
       <c r="D23" s="100">
-        <v>-50.1</v>
+        <v>-53.2</v>
       </c>
       <c r="E23" s="30">
-        <v>43125</v>
+        <v>43124</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -32254,49 +32258,49 @@
         <v>1973</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D24" s="100">
-        <v>-50</v>
+        <v>-51.7</v>
       </c>
       <c r="E24" s="30">
-        <v>43125</v>
+        <v>43124</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="116"/>
       <c r="B25" s="99" t="s">
-        <v>1948</v>
+        <v>1788</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="D25" s="100">
-        <v>-50</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>1951</v>
+        <v>-50.1</v>
+      </c>
+      <c r="E25" s="30">
+        <v>43125</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="116"/>
       <c r="B26" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>1792</v>
+        <v>1870</v>
       </c>
       <c r="D26" s="100">
-        <v>-51.8</v>
+        <v>-50</v>
       </c>
       <c r="E26" s="30">
-        <v>43127</v>
+        <v>43125</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="116"/>
       <c r="B27" s="99" t="s">
-        <v>1973</v>
+        <v>1948</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>1795</v>
@@ -32305,31 +32309,31 @@
         <v>-50</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>1976</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="116"/>
       <c r="B28" s="99" t="s">
-        <v>1973</v>
+        <v>1788</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>1974</v>
+        <v>1792</v>
       </c>
       <c r="D28" s="100">
-        <v>-50</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>1976</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E28" s="30">
+        <v>43127</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="117"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>1975</v>
+        <v>1795</v>
       </c>
       <c r="D29" s="100">
         <v>-50</v>
@@ -32339,193 +32343,224 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="102">
-        <v>2019</v>
-      </c>
+      <c r="A30" s="116"/>
       <c r="B30" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>1792</v>
+        <v>1974</v>
       </c>
       <c r="D30" s="100">
-        <v>-48.4</v>
-      </c>
-      <c r="E30" s="30">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="102">
-        <v>2020</v>
-      </c>
+      <c r="A31" s="117"/>
       <c r="B31" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>1784</v>
+        <v>1975</v>
       </c>
       <c r="D31" s="100">
-        <v>-49.6</v>
-      </c>
-      <c r="E31" s="30">
-        <v>44194</v>
+        <v>-50</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="102">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B32" s="99" t="s">
         <v>1788</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D32" s="100">
-        <v>-47.2</v>
+        <v>-48.4</v>
       </c>
       <c r="E32" s="30">
-        <v>44200</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="102">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B33" s="99" t="s">
         <v>1788</v>
       </c>
       <c r="C33" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D33" s="100">
+        <v>-49.6</v>
+      </c>
+      <c r="E33" s="30">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="102">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D34" s="100">
+        <v>-47.2</v>
+      </c>
+      <c r="E34" s="30">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="102">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C35" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D35" s="100">
         <v>-46.8</v>
       </c>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="115">
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="115">
         <v>2023</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B36" s="99" t="s">
         <v>1973</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C36" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D36" s="100">
         <v>-50</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E36" s="30">
         <v>44949</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="116"/>
-      <c r="B35" s="99" t="s">
+    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="116"/>
+      <c r="B37" s="99" t="s">
         <v>1948</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C37" s="98" t="s">
         <v>1949</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D37" s="100">
         <v>-49.4</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E37" s="30">
         <v>45279</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="117"/>
-      <c r="B36" s="99" t="s">
+    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="117"/>
+      <c r="B38" s="99" t="s">
         <v>1948</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C38" s="98" t="s">
         <v>1949</v>
       </c>
-      <c r="D36" s="103">
+      <c r="D38" s="103">
         <v>-50</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E38" s="30">
         <v>45280</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="102">
+    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="102">
         <v>2024</v>
       </c>
-      <c r="B37" s="99" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D37" s="100">
-        <v>-48.8</v>
-      </c>
-      <c r="E37" s="30">
-        <v>45312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="110" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B38" s="99" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C38" s="98" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D38" s="100">
-        <v>-45.6</v>
-      </c>
-      <c r="E38" s="30">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="111"/>
       <c r="B39" s="99" t="s">
         <v>1788</v>
       </c>
       <c r="C39" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D39" s="100">
+        <v>-48.8</v>
+      </c>
+      <c r="E39" s="30">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="110" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B40" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C40" s="98" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D40" s="100">
+        <v>-45.6</v>
+      </c>
+      <c r="E40" s="30">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="111"/>
+      <c r="B41" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C41" s="98" t="s">
         <v>1795</v>
       </c>
-      <c r="D39" s="100">
+      <c r="D41" s="100">
         <v>-45.6</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E41" s="30">
         <v>45673</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="112"/>
-      <c r="B40" s="99" t="s">
+    <row r="42" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="112"/>
+      <c r="B42" s="99" t="s">
         <v>1789</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C42" s="98" t="s">
         <v>1793</v>
       </c>
-      <c r="D40" s="100">
+      <c r="D42" s="100">
         <v>-44.2</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E42" s="31" t="s">
         <v>1977</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D40">
+  <conditionalFormatting sqref="D3:D42">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/表格文件/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/表格文件/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\表格文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308496D-D964-4A52-852A-AF43B6495B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CDD7B-9B1D-4F84-B7AC-3B1BD1B31386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1980">
   <si>
     <t>undefined</t>
   </si>
@@ -6632,6 +6632,10 @@
       </rPr>
       <t>表中站点全部位于定居点，e.g. 东戈壁人口2792，uvs特斯人口5223</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库苏古尔省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31870,7 +31874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31965,25 +31969,27 @@
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="115">
+      <c r="A6" s="101">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D6" s="100">
+        <v>-50.4</v>
+      </c>
+      <c r="E6" s="30">
+        <v>36531</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="115">
         <v>2006</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D6" s="100">
-        <v>-53.8</v>
-      </c>
-      <c r="E6" s="30">
-        <v>38721</v>
-      </c>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="117"/>
       <c r="B7" s="99" t="s">
         <v>1973</v>
       </c>
@@ -31991,60 +31997,60 @@
         <v>1785</v>
       </c>
       <c r="D7" s="100">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E7" s="30">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="115">
-        <v>2016</v>
-      </c>
+      <c r="A8" s="116"/>
       <c r="B8" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1869</v>
+        <v>1785</v>
       </c>
       <c r="D8" s="100">
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="E8" s="30">
-        <v>42394</v>
+        <v>38722</v>
       </c>
       <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="116"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>1869</v>
+        <v>1785</v>
       </c>
       <c r="D9" s="100">
-        <v>-51.9</v>
+        <v>-52.1</v>
       </c>
       <c r="E9" s="30">
-        <v>42398</v>
+        <v>38723</v>
       </c>
       <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="116"/>
+      <c r="A10" s="115">
+        <v>2016</v>
+      </c>
       <c r="B10" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>1785</v>
+        <v>1869</v>
       </c>
       <c r="D10" s="100">
-        <v>-55.3</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>1950</v>
+        <v>-50</v>
+      </c>
+      <c r="E10" s="30">
+        <v>42394</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -32057,10 +32063,10 @@
         <v>1869</v>
       </c>
       <c r="D11" s="100">
-        <v>-52.8</v>
+        <v>-51.9</v>
       </c>
       <c r="E11" s="30">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -32070,13 +32076,13 @@
         <v>1973</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>1869</v>
+        <v>1785</v>
       </c>
       <c r="D12" s="100">
-        <v>-51.5</v>
-      </c>
-      <c r="E12" s="30">
-        <v>42400</v>
+        <v>-55.3</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>1950</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -32089,10 +32095,10 @@
         <v>1869</v>
       </c>
       <c r="D13" s="100">
-        <v>-50</v>
+        <v>-52.8</v>
       </c>
       <c r="E13" s="30">
-        <v>42404</v>
+        <v>42399</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -32105,10 +32111,10 @@
         <v>1869</v>
       </c>
       <c r="D14" s="100">
-        <v>-52.3</v>
+        <v>-51.5</v>
       </c>
       <c r="E14" s="30">
-        <v>42405</v>
+        <v>42400</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -32121,44 +32127,46 @@
         <v>1869</v>
       </c>
       <c r="D15" s="100">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="E15" s="30">
-        <v>42406</v>
+        <v>42404</v>
       </c>
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="116"/>
       <c r="B16" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>1790</v>
+        <v>1869</v>
       </c>
       <c r="D16" s="100">
-        <v>-54.7</v>
+        <v>-52.3</v>
       </c>
       <c r="E16" s="30">
-        <v>42412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>42405</v>
+      </c>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="116"/>
       <c r="B17" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>1790</v>
+        <v>1869</v>
       </c>
       <c r="D17" s="100">
-        <v>-50.3</v>
+        <v>-52</v>
       </c>
       <c r="E17" s="30">
-        <v>42437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>42406</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="116"/>
       <c r="B18" s="99" t="s">
         <v>1788</v>
@@ -32167,14 +32175,14 @@
         <v>1790</v>
       </c>
       <c r="D18" s="100">
-        <v>-54</v>
+        <v>-54.7</v>
       </c>
       <c r="E18" s="30">
-        <v>42438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="117"/>
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="116"/>
       <c r="B19" s="99" t="s">
         <v>1788</v>
       </c>
@@ -32182,33 +32190,29 @@
         <v>1790</v>
       </c>
       <c r="D19" s="100">
-        <v>-53</v>
+        <v>-50.3</v>
       </c>
       <c r="E19" s="30">
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="102">
-        <v>2017</v>
-      </c>
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="116"/>
       <c r="B20" s="99" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D20" s="100">
-        <v>-45.4</v>
+        <v>-54</v>
       </c>
       <c r="E20" s="30">
-        <v>42763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="115">
-        <v>2018</v>
-      </c>
+        <v>42438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="117"/>
       <c r="B21" s="99" t="s">
         <v>1788</v>
       </c>
@@ -32216,29 +32220,33 @@
         <v>1790</v>
       </c>
       <c r="D21" s="100">
-        <v>-51.6</v>
+        <v>-53</v>
       </c>
       <c r="E21" s="30">
-        <v>43123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="116"/>
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="102">
+        <v>2017</v>
+      </c>
       <c r="B22" s="99" t="s">
-        <v>1973</v>
+        <v>1789</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>1868</v>
+        <v>1791</v>
       </c>
       <c r="D22" s="100">
-        <v>-51.3</v>
+        <v>-45.4</v>
       </c>
       <c r="E22" s="30">
-        <v>43123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="116"/>
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="115">
+        <v>2018</v>
+      </c>
       <c r="B23" s="99" t="s">
         <v>1788</v>
       </c>
@@ -32246,13 +32254,13 @@
         <v>1790</v>
       </c>
       <c r="D23" s="100">
-        <v>-53.2</v>
+        <v>-51.6</v>
       </c>
       <c r="E23" s="30">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="116"/>
       <c r="B24" s="99" t="s">
         <v>1973</v>
@@ -32261,13 +32269,13 @@
         <v>1868</v>
       </c>
       <c r="D24" s="100">
-        <v>-51.7</v>
+        <v>-51.3</v>
       </c>
       <c r="E24" s="30">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="116"/>
       <c r="B25" s="99" t="s">
         <v>1788</v>
@@ -32276,61 +32284,61 @@
         <v>1790</v>
       </c>
       <c r="D25" s="100">
-        <v>-50.1</v>
+        <v>-53.2</v>
       </c>
       <c r="E25" s="30">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="116"/>
       <c r="B26" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D26" s="100">
-        <v>-50</v>
+        <v>-51.7</v>
       </c>
       <c r="E26" s="30">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="116"/>
       <c r="B27" s="99" t="s">
-        <v>1948</v>
+        <v>1788</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="D27" s="100">
-        <v>-50</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>-50.1</v>
+      </c>
+      <c r="E27" s="30">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="116"/>
       <c r="B28" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>1792</v>
+        <v>1870</v>
       </c>
       <c r="D28" s="100">
-        <v>-51.8</v>
+        <v>-50</v>
       </c>
       <c r="E28" s="30">
-        <v>43127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="116"/>
       <c r="B29" s="99" t="s">
-        <v>1973</v>
+        <v>1948</v>
       </c>
       <c r="C29" s="98" t="s">
         <v>1795</v>
@@ -32339,31 +32347,31 @@
         <v>-50</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="116"/>
       <c r="B30" s="99" t="s">
-        <v>1973</v>
+        <v>1788</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>1974</v>
+        <v>1792</v>
       </c>
       <c r="D30" s="100">
-        <v>-50</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="117"/>
+        <v>-51.8</v>
+      </c>
+      <c r="E30" s="30">
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="116"/>
       <c r="B31" s="99" t="s">
         <v>1973</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>1975</v>
+        <v>1795</v>
       </c>
       <c r="D31" s="100">
         <v>-50</v>
@@ -32372,195 +32380,225 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="102">
-        <v>2019</v>
-      </c>
+    <row r="32" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="116"/>
       <c r="B32" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>1792</v>
+        <v>1974</v>
       </c>
       <c r="D32" s="100">
-        <v>-48.4</v>
-      </c>
-      <c r="E32" s="30">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="102">
-        <v>2020</v>
-      </c>
+      <c r="A33" s="117"/>
       <c r="B33" s="99" t="s">
-        <v>1788</v>
+        <v>1973</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>1784</v>
+        <v>1975</v>
       </c>
       <c r="D33" s="100">
-        <v>-49.6</v>
-      </c>
-      <c r="E33" s="30">
-        <v>44194</v>
+        <v>-50</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="102">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B34" s="99" t="s">
         <v>1788</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D34" s="100">
-        <v>-47.2</v>
+        <v>-48.4</v>
       </c>
       <c r="E34" s="30">
-        <v>44200</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="102">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B35" s="99" t="s">
         <v>1788</v>
       </c>
       <c r="C35" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D35" s="100">
+        <v>-49.6</v>
+      </c>
+      <c r="E35" s="30">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="102">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C36" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D36" s="100">
+        <v>-47.2</v>
+      </c>
+      <c r="E36" s="30">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="102">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C37" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D37" s="100">
         <v>-46.8</v>
       </c>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="115">
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="115">
         <v>2023</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B38" s="99" t="s">
         <v>1973</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C38" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D38" s="100">
         <v>-50</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E38" s="30">
         <v>44949</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="116"/>
-      <c r="B37" s="99" t="s">
+    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="116"/>
+      <c r="B39" s="99" t="s">
         <v>1948</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C39" s="98" t="s">
         <v>1949</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D39" s="100">
         <v>-49.4</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E39" s="30">
         <v>45279</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="117"/>
-      <c r="B38" s="99" t="s">
+    <row r="40" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="117"/>
+      <c r="B40" s="99" t="s">
         <v>1948</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C40" s="98" t="s">
         <v>1949</v>
       </c>
-      <c r="D38" s="103">
+      <c r="D40" s="103">
         <v>-50</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E40" s="30">
         <v>45280</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="102">
+    <row r="41" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="102">
         <v>2024</v>
       </c>
-      <c r="B39" s="99" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D39" s="100">
-        <v>-48.8</v>
-      </c>
-      <c r="E39" s="30">
-        <v>45312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="110" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B40" s="99" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C40" s="98" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D40" s="100">
-        <v>-45.6</v>
-      </c>
-      <c r="E40" s="30">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="111"/>
       <c r="B41" s="99" t="s">
         <v>1788</v>
       </c>
       <c r="C41" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D41" s="100">
+        <v>-48.8</v>
+      </c>
+      <c r="E41" s="30">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="110" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B42" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C42" s="98" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D42" s="100">
+        <v>-45.6</v>
+      </c>
+      <c r="E42" s="30">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="111"/>
+      <c r="B43" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C43" s="98" t="s">
         <v>1795</v>
       </c>
-      <c r="D41" s="100">
+      <c r="D43" s="100">
         <v>-45.6</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E43" s="30">
         <v>45673</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="112"/>
-      <c r="B42" s="99" t="s">
+    <row r="44" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="112"/>
+      <c r="B44" s="99" t="s">
         <v>1789</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C44" s="98" t="s">
         <v>1793</v>
       </c>
-      <c r="D42" s="100">
+      <c r="D44" s="100">
         <v>-44.2</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E44" s="31" t="s">
         <v>1977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A8:A19"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D42">
+  <conditionalFormatting sqref="D3:D44">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
